--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/27_Düzce_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/27_Düzce_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B085A391-3EC2-4DCB-9978-E55D8D644F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A10FE1-58AE-487D-A9A8-368821F7B0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{158B1766-30FA-4016-9486-C86BA36DADFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{834B035E-E72D-487F-81DC-C3572E09E78F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -940,16 +940,16 @@
   <cellStyles count="12">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7F41D972-55DB-4778-8E76-FF0391451695}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0DBB9971-1BB0-40D9-932B-FDD0E977EDE1}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{77C8D1B1-DED3-4FC8-9ACE-40A23DF043CE}"/>
-    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{F09AA23D-BAD2-48B5-8C5A-45F75F1C7CC2}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{DD532526-4B2A-4519-8B4A-3A13A7B274CB}"/>
-    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{D346BDF0-DC7D-42EF-B93C-AEB15C775381}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{F8216F1C-7C5E-4AB1-9462-96BCCE5A6139}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{01A6350C-3573-4C4E-93D5-9BE985025C34}"/>
-    <cellStyle name="Not 2" xfId="10" xr:uid="{DD4F43C5-BDFC-4E4C-8CFA-6F4ADCF274BF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{D91069A8-4DF3-474D-A5E2-C852BF014CF5}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9162E8C3-6AA4-432D-A7AD-8AEE824AF178}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DFE6C979-960D-4467-8223-B159165FEF82}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{11E6EF75-3C97-42D4-B4B7-1B4703CCBADD}"/>
+    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{050ABA63-3892-4F95-AE5B-DCCB29A78C32}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{7D1B8AAC-1975-4212-A284-7D8556DF6C69}"/>
+    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{A4288ECD-6366-4BF5-A862-42CF806E9275}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{65C5864B-DC7A-45E9-956E-1A51CD488390}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{16977C50-5F57-4C35-BC2A-04C3025C369F}"/>
+    <cellStyle name="Not 2" xfId="10" xr:uid="{9381BBB0-7C5E-4072-8058-83C3760CBC4C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{5CEFF978-00AE-4029-A7FE-C81E25614B39}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1319,7 +1319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ADD449-101A-432B-A965-09903B909CE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD13744-9031-49B7-9969-4B0B5F19D5A1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2602,18 +2602,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE2A716F-8B11-4FA6-AE0C-EC6EF74DC8F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{671E6741-4210-47DD-8D32-1870A45A64D4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E6CE0BF2-2A83-40BC-A784-537BFE53D25E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1FA87848-B2D0-4885-8525-73E3F99D636B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A48E13B-0106-4A20-8FAC-D31682089B29}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96D103CC-8329-459A-AC80-868DA7775449}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C3A9A2B-2893-4D6C-883C-5F46CD22993D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59652400-CCB5-4AA2-AD40-7322390B859F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AE38EDB-0085-4BED-805E-F39F01F606F0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8269ABBA-E938-4E10-A50A-E2C6D37EAABC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13A75108-3E38-4C84-9601-CB001BC00A63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C173E09E-46C9-466D-8AF9-1E9638913FAF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12C6387C-F0D6-4232-9A52-B16EC9C416C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B21DC75-615B-4B23-A6AF-3D4D6D29F689}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6326D7C6-20DE-4E96-B227-B33BA5F57220}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{171CCDA9-C3EA-4023-8CD9-F467AA243C91}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4484FA5B-5B7C-44F9-B34B-EB70F1395E01}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{864DA08C-9822-4B73-BCDF-6884DABC194C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1838266-B51D-46E7-81D9-D34D7AE95431}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C605489A-5A78-4B6B-BF0A-AC8B994EBBD9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80F71CC2-3BDC-45C7-BA3C-FB94DA667FA7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D5BCDA4-E9B2-469D-B8B3-8DC38C707A01}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE929660-D5F5-42B3-A96D-11B8C935A105}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33377058-827A-468E-97B0-806C55C37099}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2626,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49417A80-7855-484E-B63E-CE0EDF9A39F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85156405-DA1F-4593-A2D0-A0F6F113B8F5}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3901,18 +3901,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AEB8B12-BA92-44C7-8507-3BC948D6031E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C4080B6-5C50-4A3C-BFAA-4C43E4D20119}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{31609B08-F6B7-4A09-8B06-A10A2A7190D5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AE745FC1-F055-4A50-99F6-E080675022F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51FBEFB4-8892-4955-B9CE-983B41C029AF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F2EB130-1CBE-4432-B059-8D5EDD9DAF15}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5267B1D8-30D7-4AC2-BD9A-1E6E39236C79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{604419B0-0903-474C-ACD8-739C35BF9C61}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B78E0EC-2547-436E-BBAD-74872B234519}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E5281620-7042-4DEF-8E0B-ABE34AAB6B74}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEA905A2-1A0D-48D1-A2B3-D3D3C2BA6BE2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38414DED-90CD-44CE-9071-C93433D815AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83849682-F7BF-4682-A110-B18CFDF2565C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5AA9311F-A60F-43FC-9DD6-8A900AFA3DC4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D9B8CF9E-2DFB-49DE-8304-2678A0E2796B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4810BC14-FEAA-4C18-A12A-E94EB63B9475}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{062CD5DD-15A5-4F20-8AAF-67144ECD1781}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4297D11F-C90E-412F-ACBD-5979F1FA7E37}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{093339B7-5B61-48ED-A71B-F541BCC9CA0E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D2E75A1-C508-4884-9159-80D9342EEB3A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECD81D4C-8BED-4259-8801-CDEF9DAF93A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{746FB91B-F660-44C5-9F4C-173D4B1C6A77}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE3ECCAF-FC10-46B0-A514-6AE211BBA908}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6643469A-9F4D-4E61-AC3A-839CCD15F671}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3925,7 +3925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448B1ED3-1CA8-4F76-AD78-F262DF1EE39A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AE8A33-EA74-4EED-917E-778A1A5753BA}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5192,18 +5192,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D17C780E-33AE-42C9-B509-1149329AC85D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A087093-2E4E-4C29-BC73-2ECB6019BAC6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{01245296-BCAB-4343-A56B-DF7112C8D811}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{460DDC92-111B-46B6-B633-02CA741DE2A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EC519EC6-5061-4D77-A6FF-8C89CCFEC47A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B1DC5DF-6CFE-4BA0-98BE-561DB00DE73B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BFEF7B4-9A65-4D93-9424-48BAF9054889}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A78E52EF-EAD3-4358-8CB8-B5CBB21623B9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8045715-CF43-436C-AF34-9F09A7A7D2DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B34655E3-507C-437B-93AA-123F03EA2401}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{79D3FAD5-7EAB-4CDD-92C6-E7608DD0BF5D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EABA7088-F2D2-40A6-8159-BB7A797DB64B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D6B8FDD-4349-4177-8DC5-FABCE0769D33}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CF70D1A-E317-4768-A341-95846F4D17E7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA5DEEF3-80E2-4213-A52F-2036D6E882BC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D7D4B06C-EC0E-45A0-A8F4-E0ECECC494E4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{40F17E99-C79D-4C79-829A-4F8D82C631B8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA979B8C-398C-4968-A6F0-EB7FDF8B37D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B167C571-0A12-4E35-B61C-45388F28531E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D82D581B-C23B-4F9C-88EE-64A8114C24F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F99EF5BD-372B-4230-A6B5-94847AFC32D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{46F813A4-D1EE-44DA-BCD0-95BACEEA1C75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22D21946-3734-4120-BD40-7B739E7F57EA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E43F95D7-52DA-4C51-8E7B-E67BE7A5A34A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5216,7 +5216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF921EBF-624A-4973-B72F-69E07C8925A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A4968A-FC9C-4099-B773-C79A63ACF04E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6486,18 +6486,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{110A7CE0-ED9F-4419-86F1-EF89FF82ED26}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CB1C6AB-E2B5-4457-AB65-EC0F455EDA79}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C478C305-BEBD-44BD-ACFB-88C58B4DF1B2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9655A52F-D4A4-474B-A59F-8BAD0A46A928}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9210BAF2-FA3F-4690-BF2A-FD5E45633DE8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CB67559-5BD0-4597-A2E2-A9158AE7FA99}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09EFBC30-8B42-4C37-BF12-9AEFF6572A7B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7AD18D1-A5AB-4629-ACE2-8BC19F93C11C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE511611-D188-44EC-8C41-F034EC4C0C8D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B1350F3-A739-4F44-9BF7-D9B3B099FFE9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AB2A120-736A-4F7C-AD4B-E7C39142404C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C68CDFB-7BF7-4E60-B98D-E1DB30E958D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20A7D6EE-561F-40A2-98C2-8DA0AD1A0A78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C452D882-BD5D-4A2F-9240-D1E30A19CF28}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3D88093D-E469-4524-B5DF-4113177AA671}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{23011F69-73DB-4767-92A4-4B60AD377343}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7317CB1E-C899-48DA-AB66-02E2DC55F977}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7D3CC207-FD41-474B-893C-AE2A9A96C200}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86F90C06-67FA-4D86-B9B0-49FB478A0138}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{838DCDD3-5906-48CF-BA2A-A831676DB70E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A07EC128-9329-4EFE-BE1C-90DF940FDBD2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C9178EF-24A1-4A00-B28D-05DA7A7628A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89685F4F-41FF-4E21-9CC5-5DB23C42FCFA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50698CF4-54A8-408D-A546-9B4647263FBF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6510,7 +6510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0414FDC-E1AB-4E15-BE75-FF8F63E3033C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4189D890-0CF6-495B-BD8D-AD66199AC228}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7793,18 +7793,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABCE5A29-F20C-4480-A279-851DE9C77E13}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04CF431D-68C9-4C97-8CBE-E2E3DE4F799D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B8A5338C-516D-480F-8E7A-F628ED5051CE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{63018EFF-B776-4A8E-930D-787A0495ED80}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5D15FD9-822F-4D87-B114-9E8A6F90702D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D17B89E-2715-4ED5-8685-33FDC1C6175C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07F273D7-91BF-4786-9800-3DBF73DC0C4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54651795-2BB8-49B8-841B-95EA8B5BC70E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5C0B39F-437A-471A-A902-3218DF69EDCE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8907CC7-E7A4-467B-AB5E-4274DF05900E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A786BD1B-C40C-49EA-82DF-40A5BBE9CDD5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01F83B1C-C7F6-4A37-A77F-F8711486B07D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F181BD0-F10E-41D6-A0A6-3D12D173BB2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AF25860-EE71-4648-A38B-DA830CCF7334}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D6BA02FD-6011-4474-934E-E4E94F8DAAD3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{24CE6A45-8ED1-43E0-A191-712BFB185B50}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2AEAB748-999B-475A-A438-14A165D42D3B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DFD4AD86-E445-4B80-AD2E-322DD023F7AA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BBD800C-D65E-493D-8FDE-56AC83CBAF2B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6ED34804-94F0-448F-8CC7-355F991EC589}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC31BCE2-CC26-4B84-BA66-F1BE99FF9F25}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A4A629BC-EBFB-4040-8561-8E52A3E1FB3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F5C3836-B901-41E7-B825-D2061853A317}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7EEAB57E-8B20-4EC8-A203-FC3F415CCB16}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7817,7 +7817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40638499-5409-4FF0-84F5-4E66F0E5161F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BF9C42-2849-412E-904F-FDFF7B7AF235}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9100,18 +9100,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B495B19-6DBA-4FE1-B0E7-FFE2DB48B7DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0559415-44B5-40A2-BEAB-65B0833621EB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FDB8266-E501-4568-AC89-6B28362A7F61}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{521AA6C5-D29E-416D-A418-172645FA5A4D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6210B95-AD9F-4B4D-97BB-CA219320D22F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D24A19E7-0E7B-4F4D-A226-C6E309802C39}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84D7788A-CFEA-4AEB-B2E2-BF533BA34A73}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D079DF92-5B5F-4EC5-8745-7A9A5CD00F26}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{183132B3-043E-4977-B9F6-559153B6BD1A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{95AD7422-B32B-45C2-BAC8-6F29978FC77C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5987C0EE-8096-4280-8A4F-5786F699C735}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC9323C7-4D6A-40A6-A410-D2036C8A1929}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9910AB3-9ECA-46F1-8856-95FB4B596E86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8BB3637-1C30-4DC0-A838-6D92A9F43180}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14965C39-9A02-4B0C-9CCD-5F4B3BB85D87}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D6F99D62-2575-42D5-9E00-8A4A74794DFF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC600939-25C4-4BEA-84AF-E847BF32DACA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC8E9945-CC74-49F3-BA58-C547404C1D49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76F12C47-76E1-478D-B4C0-BBCE07F76D57}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2C45B14-1102-44C3-8DCD-F4C4D85AF8C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DB7705A-22B4-45E7-B907-8D0C2229DBE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{07DF074B-5B8D-48B5-B099-A29B7AF08975}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86A89A52-5893-425D-B9F2-F4D0D7685DE2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E94A8B5-BF09-4B53-AF99-088597E8C2E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9124,7 +9124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4E6341-29C0-44E5-8733-63FFCBD32704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58592D49-7D3E-4E90-9DA2-507FDF36290D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10407,18 +10407,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{757D1162-F073-438C-B637-3CDC964E1F32}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E2E188F-CD45-4672-B935-EEDBE3D85D3A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9A75E2F-89CB-435B-8699-192DAA29C364}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7E92C56E-6531-4524-A0B0-00ECBC0FFFAE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF11E98D-F9D8-4881-BA57-FD2E5E727A8A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F009C683-C9C3-4CC7-A13A-2F9B79A1CC7F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96390458-92ED-4204-B0C5-A2B47BB891F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E90CE45F-33CA-44AE-B6E0-207FD5C78B7A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA23DD2F-D2CF-44AC-9CD6-1453F2CB2D76}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9DD47A71-9CF2-4FA6-9FB1-D9750C4507D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D951650-B4E7-4C23-A343-BD704E9E3E63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92991091-D8F4-4B16-A5BD-274E07EB3B17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC177225-9CB2-492C-B894-F53EE218270F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B6DF2E2-8623-4FAC-A0BA-A24CCDC94BB6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB5239ED-6E47-429F-B51A-22368B5B2021}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5B270EDA-3629-4132-97E9-7733431C34EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{198BF1E8-B6B6-428B-B06E-5F184BF888BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF01E9A4-4211-4E32-B2CB-E856CDBB4585}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51F73B44-E2B0-4E2C-B0BB-067CC3C3D53F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6FA29A47-E211-44D9-B0DA-CF46C317606A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D855C0D-B7F3-4119-8627-3F4246DBE842}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B1251B8-FB23-4F10-B554-03578D76C57D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE8AD00F-3123-4022-891D-1FB08D09173F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60A0EC07-5B8D-4A65-9718-E89DF783DAF5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10431,7 +10431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FAF89-4981-4E62-900D-D9D7F964A706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101DD04F-4FF9-4F95-B3D7-3A3C97BF4A08}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11714,18 +11714,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{831B0E1E-87DC-47A4-9E38-08859B5B5729}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6FC5B845-3EAB-42D5-B405-B5E37507D542}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE31ADC1-EC87-46E8-9F4A-088AF9A4E6C2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{99AC679E-738D-42EF-8F2C-E084A5B47F6C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D68F1FED-0A83-4F02-BA88-CB68F146A562}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87F5478D-4918-44EA-B8F2-7CF4370CB630}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4DD5869A-8776-4649-B5DC-562CCCA2EC66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86BD83D7-DD84-4353-ADC2-954F7E279440}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA11D566-042F-45D5-96BE-374A5BC7DE75}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{25DA0DF5-1021-487C-88A6-7FC0C583F346}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8AE9591-3FC3-42F2-8517-3586C28F29AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BF5854F-7829-4A3A-9FCF-37A78A247D56}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C93722E5-BA51-4897-899B-DE4ABCB2DCFE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE678013-C64F-4971-8BC1-3618162AA963}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{767B7C5E-4D15-4727-ABB9-F8E79F938012}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2E2C6FFE-DAD2-40E4-B833-CB54F77B1844}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{886C5DEE-B6FF-4BBC-9BE4-FB3646495A1E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A90A04E6-841C-443C-AE2A-79F7EC66AFCF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58307F07-BC41-42E6-BEF2-ACB629E55EB2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC41F398-3703-4AAA-85B7-16D039B71728}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC069F62-5BDD-459F-8A6F-830A54120421}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8596BB82-8D46-4D4A-A5AA-782E3F5C9BC8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6FCEFED-168A-4A7C-A640-CCFAC8100CF2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21676599-2D30-4EFC-8D8C-EF4C342C288F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11738,7 +11738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF272764-5AF5-43BE-BFF4-4439034D78CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DDB4D7-0816-4958-AB16-EF3F80106314}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13013,18 +13013,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{163777FE-8E57-48CA-AA1C-839FD0B86963}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75ECBF50-3CC5-4047-ABC7-2BA78D3C58DB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0995C7D8-1FCA-43D7-8DB0-67DB1A35A535}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{663098F1-21F5-4409-809C-918E9A2BDE54}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B9ED0B8-19C1-4929-968E-C9EAA92B3858}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A900EE13-1B09-4DF5-890E-68C4CFC3F598}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E055662-3845-4CBE-8643-EF00F6B663BE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F9630A4-4E37-453F-8002-B683C9B3EEC9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2A34032-9A70-4545-81BC-A51FF71B8DBB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D273E7D-093B-4C01-B991-23DE451587F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{923E1589-4F20-43B1-A841-6E8E535AE391}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD2E66FD-7001-4E30-AD2C-CBF98C84BB12}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C3CB65C-83FF-45A0-9FC8-7DE92D240EC5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30E68527-A3BC-43D9-99D7-4E62FF7106CB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BBC87D00-6845-4FD4-912B-887E767FFD2C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FB9242C0-B9C5-499E-B5F2-E04A77FF0055}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C7B197B-52ED-4E1D-AFB4-8B6A8236C3D7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DCBB76DD-0F36-4546-A3D0-408EBBD92725}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA650604-2D3B-467D-81B6-A8AD7B2328DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{410A07E5-EB7F-45D6-90F2-662FC8CA38D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCCE8275-3949-4B8A-BF1A-3658DD9A9871}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BF12146C-0F8C-445E-BE67-073CD5E9B7C8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BFDF303C-2B9B-4656-8379-1DE16F93B83C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38379FA7-D4F9-472E-8F97-BB963902582D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13037,7 +13037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8D0B79-7F63-4A75-BD4D-03D4086B3DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94851533-FC0D-4F54-AC15-6C23C021315B}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14312,18 +14312,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F28C60A-7D83-47C7-9A49-235FD21C43CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04E17C04-600A-44CB-9C9E-D5B8D3280218}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D98E803C-A973-4493-8DEA-3E121A5C28E0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA727DF0-808F-4F46-8AEA-A0534A807E39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2F971F5-D05B-4893-9AC4-1595140F07D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9143FDE6-C80D-4E92-B5A1-94D96CD890B1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58A7A505-5676-4CA5-B4FF-394EADD01AEA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39545DE9-B3E1-4E88-A249-197D0E09615E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82535F6C-52DB-4BBC-A534-6CB9B47E2A0F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EE94831A-9EA5-415F-AD3C-D1D94A7AFDB0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AECA2C6E-C9C8-4F9C-B149-A2710AD93F0F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22A47781-1B04-4D5E-B814-768713E1D0F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3455958-C820-40B8-8C82-B8E29DD46B24}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD8B1793-03F8-4792-9E7F-56B59EB31217}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{529463DE-41E7-418C-95A7-0EB55E0F56E9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DB5E6924-73DE-424F-B038-B83CD62619DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{879F8A51-9B67-439E-AD8A-1B0F125269E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0058D6D2-C94A-44B5-B723-EF02582F6F6D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BDC3DDD0-4DD2-4EB8-B9DC-C8C404EF4D74}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{953EF2C6-6110-4EB7-9BC1-AD3EB3B3AE77}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2FC7AF99-2B07-4259-990D-E287B446714E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{544679CF-0A89-4465-A62F-46C814064374}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E62A2DF5-FCAF-4253-9A5A-CAA2FB10D61F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50EAF863-B25C-45D2-A736-FED952731E5B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14336,7 +14336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21104E1-F45C-4E29-BEE8-93C86CB5E9FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3A11D3-EB85-45F4-9255-8AD6B7F60BDB}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15611,18 +15611,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97B68277-8A80-4E25-8DBA-9E2EAB025E21}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4EB0CC5-78D7-4E6D-BA85-7D45A68BED64}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FDE1812D-17F7-4EE7-AC02-4452328FCF82}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{90FF76E4-8130-4DC7-9F30-10EF03F63AC2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E9F810A5-ADF2-4C2B-A152-B2CF82C68880}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CD85447-B3A2-419F-AD6E-053F229AF8F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5ABED967-314C-4C4F-80F5-A781E8AFAD7D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42C75929-0F32-47D0-AF4E-12914ACF7AF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BE11A21-AE38-4527-A1EE-B13FDA3FD161}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B90DF1AF-FA4E-4744-85D6-46B01223342B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D73F725-599D-4615-B80D-9A72E1B7C3AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C2B12414-8791-4498-94E1-5A7F04389A81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEC6B1EA-7D51-4372-ADEF-41DAB5756372}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC6180C2-C322-42E6-86B2-B062368E0257}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1350B1FA-B2C0-4CEB-B8E8-19F7D9BE4D6B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EBAB4B7C-861D-4C38-A52E-0857BA51122E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83E7160B-107F-4A16-9310-3AB4EC1F01D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83C6B41A-3E04-4AC0-9868-242FDBC32D0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9930D333-7B88-41EF-90F7-D45ACBD3B0F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76FDE3EA-D9D0-47EF-A559-0344BFAE9464}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F829ADBB-3421-47D6-B7C1-C832C3CDBB9F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A363786A-029A-4703-A66A-68EECFE6942B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{79BD945A-D13D-416B-9044-FD6F8EB99197}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3160039D-4174-4D30-8CE4-4A16FD941671}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15635,7 +15635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B860BA4C-13DE-49B4-8079-D42BD5B4E707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3149F3-2FB3-47D5-B596-E57882072FF3}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16910,18 +16910,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AF383E2-F87F-4F6B-8675-8D918731FD34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B88CF9EA-A959-4D8F-978C-CB9E1E9FC91F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5DF31B34-CC4E-4963-859A-7E20CD79AC64}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1D4B8E5D-5FEF-48F9-805D-F4138AF7FF8A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1E787EC-142D-415E-914C-BE98B2D62D10}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{850D4889-4482-48EC-A599-76EF1A121FA3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF0E2D20-839E-4CDF-9E47-3BD4620F669A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31506907-D105-4803-88B7-1D0D308A4BAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{248067D5-C97C-4868-AA1D-D289244676CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2435407E-CE4E-4BF7-94C2-6FEE4427F4CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CEC7A627-325F-4C09-B4DB-16FA2032968B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B4C2585-4F88-4544-A7A0-219C1755A912}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61AB44EF-D1DA-4DCA-8E87-8668BD3A980D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{563F1016-19D8-42E7-B2E6-E8FC6E71A55B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E4E0EA8F-49B7-42BB-A449-BA51E8BCA896}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{576C517E-E152-4461-9314-94AB87CFCFE8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F2764A0-6A92-44ED-9088-C36A2D134D6C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{19817D9B-F218-4554-9403-1C0C04BE357F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AEA3D74A-3F18-4DD0-BA5C-DA6B2463C454}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8394FCEB-055C-4EBC-8AF2-55AA6C2C6242}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2E5EADB-6662-4D46-93E3-639D058283AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A381BE6B-EE25-43FE-B9A1-36853093D141}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E23C6B39-4EB5-4333-9404-D2891AEDB4A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D941B06-89DC-4BFF-A5BA-B7653ADC3BFE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
